--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7270" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bak" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bak!$A$2:$G$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet1 (2)'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sheet1 (2)'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1382,7 +1385,9 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2332,8 +2337,10 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2817,7 +2824,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2831,10 +2842,66 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
